--- a/scripts/BulkTests.xlsx
+++ b/scripts/BulkTests.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="465" windowWidth="16800" windowHeight="20535" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="16800" yWindow="465" windowWidth="16800" windowHeight="20535" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="bulkseparated-" sheetId="6" r:id="rId1"/>
@@ -27,17 +27,17 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Bulkseparated!$A$1:$J$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bulkseparated-'!$A$1:$I$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">bulkTestsNotSeparated!$C$1:$H$133</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">JustAnalysis!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">JustAnalysis!$A$1:$C$1</definedName>
     <definedName name="PRODUCT_ACTION">[1]PRODUCT!#REF!</definedName>
     <definedName name="PRODUCT_LINKS">[1]PRODUCT!#REF!</definedName>
     <definedName name="PRODUCT_SPEC_ACTION" localSheetId="2">bulkTestsNotSeparated!#REF!</definedName>
     <definedName name="PRODUCT_SPEC_ACTION" localSheetId="5">JustAnalysis!#REF!</definedName>
     <definedName name="PRODUCT_SPEC_ACTION">BulkPRODUCT_SPEC!#REF!</definedName>
     <definedName name="PRODUCT_SPEC_DATA" localSheetId="2">bulkTestsNotSeparated!$C$2:$H$133</definedName>
-    <definedName name="PRODUCT_SPEC_DATA" localSheetId="5">JustAnalysis!$A$2:$B$416</definedName>
+    <definedName name="PRODUCT_SPEC_DATA" localSheetId="5">JustAnalysis!$B$2:$B$416</definedName>
     <definedName name="PRODUCT_SPEC_DATA">BulkPRODUCT_SPEC!$A$2:$K$432</definedName>
     <definedName name="PRODUCT_SPEC_FIELDS" localSheetId="2">bulkTestsNotSeparated!$C$1:$H$1</definedName>
-    <definedName name="PRODUCT_SPEC_FIELDS" localSheetId="5">JustAnalysis!$A$1:$B$1</definedName>
+    <definedName name="PRODUCT_SPEC_FIELDS" localSheetId="5">JustAnalysis!$B$1:$B$1</definedName>
     <definedName name="PRODUCT_SPEC_FIELDS">BulkPRODUCT_SPEC!$A$1:$K$1</definedName>
     <definedName name="PRODUCT_SPEC_LINKS" localSheetId="2">bulkTestsNotSeparated!#REF!</definedName>
     <definedName name="PRODUCT_SPEC_LINKS" localSheetId="5">JustAnalysis!#REF!</definedName>
@@ -46,7 +46,7 @@
     <definedName name="PRODUCT_SPEC_STATUS" localSheetId="5">JustAnalysis!#REF!</definedName>
     <definedName name="PRODUCT_SPEC_STATUS">BulkPRODUCT_SPEC!#REF!</definedName>
     <definedName name="PRODUCT_SPEC_TABLE" localSheetId="2">bulkTestsNotSeparated!$C$1:$H$133</definedName>
-    <definedName name="PRODUCT_SPEC_TABLE" localSheetId="5">JustAnalysis!$A$1:$B$416</definedName>
+    <definedName name="PRODUCT_SPEC_TABLE" localSheetId="5">JustAnalysis!$B$1:$B$416</definedName>
     <definedName name="PRODUCT_SPEC_TABLE">BulkPRODUCT_SPEC!$A$1:$K$432</definedName>
     <definedName name="PRODUCT_STATUS">[1]PRODUCT!#REF!</definedName>
   </definedNames>
@@ -1351,7 +1351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1425,6 +1425,11 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -44288,13 +44293,13 @@
   <dimension ref="A1:B823"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:XFD47"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="49.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="49.7109375" style="2" customWidth="1"/>
     <col min="3" max="188" width="9.42578125" style="2"/>
     <col min="189" max="189" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="190" max="190" width="6.140625" style="2" bestFit="1" customWidth="1"/>
@@ -47891,442 +47896,442 @@
   <sheetData>
     <row r="1" spans="1:2" s="6" customFormat="1">
       <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>134</v>
+      <c r="A2" s="34" t="s">
+        <v>292</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>261</v>
+      <c r="A3" s="34" t="s">
+        <v>293</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>40</v>
+      <c r="A4" s="34" t="s">
+        <v>294</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>139</v>
+      <c r="A5" s="34" t="s">
+        <v>295</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>123</v>
+      <c r="A6" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>123</v>
+      <c r="A7" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>113</v>
+      <c r="A8" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>93</v>
+      <c r="A9" s="34" t="s">
+        <v>290</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>271</v>
+      <c r="A10" s="34" t="s">
+        <v>290</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>265</v>
+      <c r="A11" s="34" t="s">
+        <v>291</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>86</v>
+      <c r="A12" s="34" t="s">
+        <v>291</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>170</v>
+        <v>260</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>269</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>165</v>
+        <v>261</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>104</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>104</v>
+      <c r="A15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>263</v>
+      <c r="A16" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>40</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>270</v>
+      <c r="A18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>268</v>
+      <c r="A19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>176</v>
+        <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>37</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>220</v>
+        <v>262</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>93</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>132</v>
+      <c r="A22" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>162</v>
+        <v>264</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>262</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>162</v>
+        <v>265</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>60</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>162</v>
+        <v>70</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>267</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>268</v>
+      <c r="A26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>128</v>
+      <c r="A27" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>43</v>
+        <v>266</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>42</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="3" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>123</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>128</v>
+      <c r="A30" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>131</v>
+      <c r="A31" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="3" t="s">
-        <v>210</v>
+        <v>104</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>128</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>49</v>
+      <c r="A34" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>147</v>
+      <c r="A35" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="3" t="s">
-        <v>142</v>
+        <v>268</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>141</v>
+        <v>184</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
-        <v>173</v>
+        <v>268</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>260</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="3" t="s">
-        <v>156</v>
+        <v>269</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>44</v>
+        <v>170</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>79</v>
+      <c r="A40" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>47</v>
+      <c r="A41" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="3" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="3" t="s">
-        <v>166</v>
+        <v>126</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>264</v>
+        <v>210</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>266</v>
+      <c r="A44" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>188</v>
-      </c>
-      <c r="B45" t="s">
-        <v>292</v>
+      <c r="A45" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="B45" s="33" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>189</v>
-      </c>
-      <c r="B46" t="s">
-        <v>293</v>
+      <c r="A46" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="B46" s="33" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>15</v>
-      </c>
-      <c r="B47" t="s">
-        <v>294</v>
+      <c r="A47" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="B47" s="33" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>180</v>
-      </c>
-      <c r="B48" t="s">
-        <v>295</v>
+      <c r="A48" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="B48" s="33" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B49" t="s">
-        <v>288</v>
+      <c r="A49" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="B49" s="35" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>22</v>
-      </c>
-      <c r="B50" t="s">
-        <v>21</v>
+      <c r="A50" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50" s="35" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>243</v>
-      </c>
-      <c r="B51" t="s">
-        <v>289</v>
+      <c r="A51" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51" s="35" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>244</v>
-      </c>
-      <c r="B52" t="s">
-        <v>290</v>
+      <c r="A52" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="B52" s="35" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>240</v>
-      </c>
-      <c r="B53" t="s">
-        <v>290</v>
+      <c r="A53" s="35" t="s">
+        <v>271</v>
+      </c>
+      <c r="B53" s="35" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>33</v>
-      </c>
-      <c r="B54" t="s">
-        <v>291</v>
+      <c r="A54" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B54" s="35" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>242</v>
-      </c>
-      <c r="B55" t="s">
-        <v>291</v>
+      <c r="A55" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="B55" s="35" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -51402,6 +51407,11 @@
       <c r="B823"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C1">
+    <sortState ref="A2:C55">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <dataValidations count="2">
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="GH65454:GH65949 QD65454:QD65949 ZZ65454:ZZ65949 AJV65454:AJV65949 ATR65454:ATR65949 BDN65454:BDN65949 BNJ65454:BNJ65949 BXF65454:BXF65949 CHB65454:CHB65949 CQX65454:CQX65949 DAT65454:DAT65949 DKP65454:DKP65949 DUL65454:DUL65949 EEH65454:EEH65949 EOD65454:EOD65949 EXZ65454:EXZ65949 FHV65454:FHV65949 FRR65454:FRR65949 GBN65454:GBN65949 GLJ65454:GLJ65949 GVF65454:GVF65949 HFB65454:HFB65949 HOX65454:HOX65949 HYT65454:HYT65949 IIP65454:IIP65949 ISL65454:ISL65949 JCH65454:JCH65949 JMD65454:JMD65949 JVZ65454:JVZ65949 KFV65454:KFV65949 KPR65454:KPR65949 KZN65454:KZN65949 LJJ65454:LJJ65949 LTF65454:LTF65949 MDB65454:MDB65949 MMX65454:MMX65949 MWT65454:MWT65949 NGP65454:NGP65949 NQL65454:NQL65949 OAH65454:OAH65949 OKD65454:OKD65949 OTZ65454:OTZ65949 PDV65454:PDV65949 PNR65454:PNR65949 PXN65454:PXN65949 QHJ65454:QHJ65949 QRF65454:QRF65949 RBB65454:RBB65949 RKX65454:RKX65949 RUT65454:RUT65949 SEP65454:SEP65949 SOL65454:SOL65949 SYH65454:SYH65949 TID65454:TID65949 TRZ65454:TRZ65949 UBV65454:UBV65949 ULR65454:ULR65949 UVN65454:UVN65949 VFJ65454:VFJ65949 VPF65454:VPF65949 VZB65454:VZB65949 WIX65454:WIX65949 WST65454:WST65949 GH130990:GH131485 QD130990:QD131485 ZZ130990:ZZ131485 AJV130990:AJV131485 ATR130990:ATR131485 BDN130990:BDN131485 BNJ130990:BNJ131485 BXF130990:BXF131485 CHB130990:CHB131485 CQX130990:CQX131485 DAT130990:DAT131485 DKP130990:DKP131485 DUL130990:DUL131485 EEH130990:EEH131485 EOD130990:EOD131485 EXZ130990:EXZ131485 FHV130990:FHV131485 FRR130990:FRR131485 GBN130990:GBN131485 GLJ130990:GLJ131485 GVF130990:GVF131485 HFB130990:HFB131485 HOX130990:HOX131485 HYT130990:HYT131485 IIP130990:IIP131485 ISL130990:ISL131485 JCH130990:JCH131485 JMD130990:JMD131485 JVZ130990:JVZ131485 KFV130990:KFV131485 KPR130990:KPR131485 KZN130990:KZN131485 LJJ130990:LJJ131485 LTF130990:LTF131485 MDB130990:MDB131485 MMX130990:MMX131485 MWT130990:MWT131485 NGP130990:NGP131485 NQL130990:NQL131485 OAH130990:OAH131485 OKD130990:OKD131485 OTZ130990:OTZ131485 PDV130990:PDV131485 PNR130990:PNR131485 PXN130990:PXN131485 QHJ130990:QHJ131485 QRF130990:QRF131485 RBB130990:RBB131485 RKX130990:RKX131485 RUT130990:RUT131485 SEP130990:SEP131485 SOL130990:SOL131485 SYH130990:SYH131485 TID130990:TID131485 TRZ130990:TRZ131485 UBV130990:UBV131485 ULR130990:ULR131485 UVN130990:UVN131485 VFJ130990:VFJ131485 VPF130990:VPF131485 VZB130990:VZB131485 WIX130990:WIX131485 WST130990:WST131485 GH196526:GH197021 QD196526:QD197021 ZZ196526:ZZ197021 AJV196526:AJV197021 ATR196526:ATR197021 BDN196526:BDN197021 BNJ196526:BNJ197021 BXF196526:BXF197021 CHB196526:CHB197021 CQX196526:CQX197021 DAT196526:DAT197021 DKP196526:DKP197021 DUL196526:DUL197021 EEH196526:EEH197021 EOD196526:EOD197021 EXZ196526:EXZ197021 FHV196526:FHV197021 FRR196526:FRR197021 GBN196526:GBN197021 GLJ196526:GLJ197021 GVF196526:GVF197021 HFB196526:HFB197021 HOX196526:HOX197021 HYT196526:HYT197021 IIP196526:IIP197021 ISL196526:ISL197021 JCH196526:JCH197021 JMD196526:JMD197021 JVZ196526:JVZ197021 KFV196526:KFV197021 KPR196526:KPR197021 KZN196526:KZN197021 LJJ196526:LJJ197021 LTF196526:LTF197021 MDB196526:MDB197021 MMX196526:MMX197021 MWT196526:MWT197021 NGP196526:NGP197021 NQL196526:NQL197021 OAH196526:OAH197021 OKD196526:OKD197021 OTZ196526:OTZ197021 PDV196526:PDV197021 PNR196526:PNR197021 PXN196526:PXN197021 QHJ196526:QHJ197021 QRF196526:QRF197021 RBB196526:RBB197021 RKX196526:RKX197021 RUT196526:RUT197021 SEP196526:SEP197021 SOL196526:SOL197021 SYH196526:SYH197021 TID196526:TID197021 TRZ196526:TRZ197021 UBV196526:UBV197021 ULR196526:ULR197021 UVN196526:UVN197021 VFJ196526:VFJ197021 VPF196526:VPF197021 VZB196526:VZB197021 WIX196526:WIX197021 WST196526:WST197021 GH262062:GH262557 QD262062:QD262557 ZZ262062:ZZ262557 AJV262062:AJV262557 ATR262062:ATR262557 BDN262062:BDN262557 BNJ262062:BNJ262557 BXF262062:BXF262557 CHB262062:CHB262557 CQX262062:CQX262557 DAT262062:DAT262557 DKP262062:DKP262557 DUL262062:DUL262557 EEH262062:EEH262557 EOD262062:EOD262557 EXZ262062:EXZ262557 FHV262062:FHV262557 FRR262062:FRR262557 GBN262062:GBN262557 GLJ262062:GLJ262557 GVF262062:GVF262557 HFB262062:HFB262557 HOX262062:HOX262557 HYT262062:HYT262557 IIP262062:IIP262557 ISL262062:ISL262557 JCH262062:JCH262557 JMD262062:JMD262557 JVZ262062:JVZ262557 KFV262062:KFV262557 KPR262062:KPR262557 KZN262062:KZN262557 LJJ262062:LJJ262557 LTF262062:LTF262557 MDB262062:MDB262557 MMX262062:MMX262557 MWT262062:MWT262557 NGP262062:NGP262557 NQL262062:NQL262557 OAH262062:OAH262557 OKD262062:OKD262557 OTZ262062:OTZ262557 PDV262062:PDV262557 PNR262062:PNR262557 PXN262062:PXN262557 QHJ262062:QHJ262557 QRF262062:QRF262557 RBB262062:RBB262557 RKX262062:RKX262557 RUT262062:RUT262557 SEP262062:SEP262557 SOL262062:SOL262557 SYH262062:SYH262557 TID262062:TID262557 TRZ262062:TRZ262557 UBV262062:UBV262557 ULR262062:ULR262557 UVN262062:UVN262557 VFJ262062:VFJ262557 VPF262062:VPF262557 VZB262062:VZB262557 WIX262062:WIX262557 WST262062:WST262557 GH327598:GH328093 QD327598:QD328093 ZZ327598:ZZ328093 AJV327598:AJV328093 ATR327598:ATR328093 BDN327598:BDN328093 BNJ327598:BNJ328093 BXF327598:BXF328093 CHB327598:CHB328093 CQX327598:CQX328093 DAT327598:DAT328093 DKP327598:DKP328093 DUL327598:DUL328093 EEH327598:EEH328093 EOD327598:EOD328093 EXZ327598:EXZ328093 FHV327598:FHV328093 FRR327598:FRR328093 GBN327598:GBN328093 GLJ327598:GLJ328093 GVF327598:GVF328093 HFB327598:HFB328093 HOX327598:HOX328093 HYT327598:HYT328093 IIP327598:IIP328093 ISL327598:ISL328093 JCH327598:JCH328093 JMD327598:JMD328093 JVZ327598:JVZ328093 KFV327598:KFV328093 KPR327598:KPR328093 KZN327598:KZN328093 LJJ327598:LJJ328093 LTF327598:LTF328093 MDB327598:MDB328093 MMX327598:MMX328093 MWT327598:MWT328093 NGP327598:NGP328093 NQL327598:NQL328093 OAH327598:OAH328093 OKD327598:OKD328093 OTZ327598:OTZ328093 PDV327598:PDV328093 PNR327598:PNR328093 PXN327598:PXN328093 QHJ327598:QHJ328093 QRF327598:QRF328093 RBB327598:RBB328093 RKX327598:RKX328093 RUT327598:RUT328093 SEP327598:SEP328093 SOL327598:SOL328093 SYH327598:SYH328093 TID327598:TID328093 TRZ327598:TRZ328093 UBV327598:UBV328093 ULR327598:ULR328093 UVN327598:UVN328093 VFJ327598:VFJ328093 VPF327598:VPF328093 VZB327598:VZB328093 WIX327598:WIX328093 WST327598:WST328093 GH393134:GH393629 QD393134:QD393629 ZZ393134:ZZ393629 AJV393134:AJV393629 ATR393134:ATR393629 BDN393134:BDN393629 BNJ393134:BNJ393629 BXF393134:BXF393629 CHB393134:CHB393629 CQX393134:CQX393629 DAT393134:DAT393629 DKP393134:DKP393629 DUL393134:DUL393629 EEH393134:EEH393629 EOD393134:EOD393629 EXZ393134:EXZ393629 FHV393134:FHV393629 FRR393134:FRR393629 GBN393134:GBN393629 GLJ393134:GLJ393629 GVF393134:GVF393629 HFB393134:HFB393629 HOX393134:HOX393629 HYT393134:HYT393629 IIP393134:IIP393629 ISL393134:ISL393629 JCH393134:JCH393629 JMD393134:JMD393629 JVZ393134:JVZ393629 KFV393134:KFV393629 KPR393134:KPR393629 KZN393134:KZN393629 LJJ393134:LJJ393629 LTF393134:LTF393629 MDB393134:MDB393629 MMX393134:MMX393629 MWT393134:MWT393629 NGP393134:NGP393629 NQL393134:NQL393629 OAH393134:OAH393629 OKD393134:OKD393629 OTZ393134:OTZ393629 PDV393134:PDV393629 PNR393134:PNR393629 PXN393134:PXN393629 QHJ393134:QHJ393629 QRF393134:QRF393629 RBB393134:RBB393629 RKX393134:RKX393629 RUT393134:RUT393629 SEP393134:SEP393629 SOL393134:SOL393629 SYH393134:SYH393629 TID393134:TID393629 TRZ393134:TRZ393629 UBV393134:UBV393629 ULR393134:ULR393629 UVN393134:UVN393629 VFJ393134:VFJ393629 VPF393134:VPF393629 VZB393134:VZB393629 WIX393134:WIX393629 WST393134:WST393629 GH458670:GH459165 QD458670:QD459165 ZZ458670:ZZ459165 AJV458670:AJV459165 ATR458670:ATR459165 BDN458670:BDN459165 BNJ458670:BNJ459165 BXF458670:BXF459165 CHB458670:CHB459165 CQX458670:CQX459165 DAT458670:DAT459165 DKP458670:DKP459165 DUL458670:DUL459165 EEH458670:EEH459165 EOD458670:EOD459165 EXZ458670:EXZ459165 FHV458670:FHV459165 FRR458670:FRR459165 GBN458670:GBN459165 GLJ458670:GLJ459165 GVF458670:GVF459165 HFB458670:HFB459165 HOX458670:HOX459165 HYT458670:HYT459165 IIP458670:IIP459165 ISL458670:ISL459165 JCH458670:JCH459165 JMD458670:JMD459165 JVZ458670:JVZ459165 KFV458670:KFV459165 KPR458670:KPR459165 KZN458670:KZN459165 LJJ458670:LJJ459165 LTF458670:LTF459165 MDB458670:MDB459165 MMX458670:MMX459165 MWT458670:MWT459165 NGP458670:NGP459165 NQL458670:NQL459165 OAH458670:OAH459165 OKD458670:OKD459165 OTZ458670:OTZ459165 PDV458670:PDV459165 PNR458670:PNR459165 PXN458670:PXN459165 QHJ458670:QHJ459165 QRF458670:QRF459165 RBB458670:RBB459165 RKX458670:RKX459165 RUT458670:RUT459165 SEP458670:SEP459165 SOL458670:SOL459165 SYH458670:SYH459165 TID458670:TID459165 TRZ458670:TRZ459165 UBV458670:UBV459165 ULR458670:ULR459165 UVN458670:UVN459165 VFJ458670:VFJ459165 VPF458670:VPF459165 VZB458670:VZB459165 WIX458670:WIX459165 WST458670:WST459165 GH524206:GH524701 QD524206:QD524701 ZZ524206:ZZ524701 AJV524206:AJV524701 ATR524206:ATR524701 BDN524206:BDN524701 BNJ524206:BNJ524701 BXF524206:BXF524701 CHB524206:CHB524701 CQX524206:CQX524701 DAT524206:DAT524701 DKP524206:DKP524701 DUL524206:DUL524701 EEH524206:EEH524701 EOD524206:EOD524701 EXZ524206:EXZ524701 FHV524206:FHV524701 FRR524206:FRR524701 GBN524206:GBN524701 GLJ524206:GLJ524701 GVF524206:GVF524701 HFB524206:HFB524701 HOX524206:HOX524701 HYT524206:HYT524701 IIP524206:IIP524701 ISL524206:ISL524701 JCH524206:JCH524701 JMD524206:JMD524701 JVZ524206:JVZ524701 KFV524206:KFV524701 KPR524206:KPR524701 KZN524206:KZN524701 LJJ524206:LJJ524701 LTF524206:LTF524701 MDB524206:MDB524701 MMX524206:MMX524701 MWT524206:MWT524701 NGP524206:NGP524701 NQL524206:NQL524701 OAH524206:OAH524701 OKD524206:OKD524701 OTZ524206:OTZ524701 PDV524206:PDV524701 PNR524206:PNR524701 PXN524206:PXN524701 QHJ524206:QHJ524701 QRF524206:QRF524701 RBB524206:RBB524701 RKX524206:RKX524701 RUT524206:RUT524701 SEP524206:SEP524701 SOL524206:SOL524701 SYH524206:SYH524701 TID524206:TID524701 TRZ524206:TRZ524701 UBV524206:UBV524701 ULR524206:ULR524701 UVN524206:UVN524701 VFJ524206:VFJ524701 VPF524206:VPF524701 VZB524206:VZB524701 WIX524206:WIX524701 WST524206:WST524701 GH589742:GH590237 QD589742:QD590237 ZZ589742:ZZ590237 AJV589742:AJV590237 ATR589742:ATR590237 BDN589742:BDN590237 BNJ589742:BNJ590237 BXF589742:BXF590237 CHB589742:CHB590237 CQX589742:CQX590237 DAT589742:DAT590237 DKP589742:DKP590237 DUL589742:DUL590237 EEH589742:EEH590237 EOD589742:EOD590237 EXZ589742:EXZ590237 FHV589742:FHV590237 FRR589742:FRR590237 GBN589742:GBN590237 GLJ589742:GLJ590237 GVF589742:GVF590237 HFB589742:HFB590237 HOX589742:HOX590237 HYT589742:HYT590237 IIP589742:IIP590237 ISL589742:ISL590237 JCH589742:JCH590237 JMD589742:JMD590237 JVZ589742:JVZ590237 KFV589742:KFV590237 KPR589742:KPR590237 KZN589742:KZN590237 LJJ589742:LJJ590237 LTF589742:LTF590237 MDB589742:MDB590237 MMX589742:MMX590237 MWT589742:MWT590237 NGP589742:NGP590237 NQL589742:NQL590237 OAH589742:OAH590237 OKD589742:OKD590237 OTZ589742:OTZ590237 PDV589742:PDV590237 PNR589742:PNR590237 PXN589742:PXN590237 QHJ589742:QHJ590237 QRF589742:QRF590237 RBB589742:RBB590237 RKX589742:RKX590237 RUT589742:RUT590237 SEP589742:SEP590237 SOL589742:SOL590237 SYH589742:SYH590237 TID589742:TID590237 TRZ589742:TRZ590237 UBV589742:UBV590237 ULR589742:ULR590237 UVN589742:UVN590237 VFJ589742:VFJ590237 VPF589742:VPF590237 VZB589742:VZB590237 WIX589742:WIX590237 WST589742:WST590237 GH655278:GH655773 QD655278:QD655773 ZZ655278:ZZ655773 AJV655278:AJV655773 ATR655278:ATR655773 BDN655278:BDN655773 BNJ655278:BNJ655773 BXF655278:BXF655773 CHB655278:CHB655773 CQX655278:CQX655773 DAT655278:DAT655773 DKP655278:DKP655773 DUL655278:DUL655773 EEH655278:EEH655773 EOD655278:EOD655773 EXZ655278:EXZ655773 FHV655278:FHV655773 FRR655278:FRR655773 GBN655278:GBN655773 GLJ655278:GLJ655773 GVF655278:GVF655773 HFB655278:HFB655773 HOX655278:HOX655773 HYT655278:HYT655773 IIP655278:IIP655773 ISL655278:ISL655773 JCH655278:JCH655773 JMD655278:JMD655773 JVZ655278:JVZ655773 KFV655278:KFV655773 KPR655278:KPR655773 KZN655278:KZN655773 LJJ655278:LJJ655773 LTF655278:LTF655773 MDB655278:MDB655773 MMX655278:MMX655773 MWT655278:MWT655773 NGP655278:NGP655773 NQL655278:NQL655773 OAH655278:OAH655773 OKD655278:OKD655773 OTZ655278:OTZ655773 PDV655278:PDV655773 PNR655278:PNR655773 PXN655278:PXN655773 QHJ655278:QHJ655773 QRF655278:QRF655773 RBB655278:RBB655773 RKX655278:RKX655773 RUT655278:RUT655773 SEP655278:SEP655773 SOL655278:SOL655773 SYH655278:SYH655773 TID655278:TID655773 TRZ655278:TRZ655773 UBV655278:UBV655773 ULR655278:ULR655773 UVN655278:UVN655773 VFJ655278:VFJ655773 VPF655278:VPF655773 VZB655278:VZB655773 WIX655278:WIX655773 WST655278:WST655773 GH720814:GH721309 QD720814:QD721309 ZZ720814:ZZ721309 AJV720814:AJV721309 ATR720814:ATR721309 BDN720814:BDN721309 BNJ720814:BNJ721309 BXF720814:BXF721309 CHB720814:CHB721309 CQX720814:CQX721309 DAT720814:DAT721309 DKP720814:DKP721309 DUL720814:DUL721309 EEH720814:EEH721309 EOD720814:EOD721309 EXZ720814:EXZ721309 FHV720814:FHV721309 FRR720814:FRR721309 GBN720814:GBN721309 GLJ720814:GLJ721309 GVF720814:GVF721309 HFB720814:HFB721309 HOX720814:HOX721309 HYT720814:HYT721309 IIP720814:IIP721309 ISL720814:ISL721309 JCH720814:JCH721309 JMD720814:JMD721309 JVZ720814:JVZ721309 KFV720814:KFV721309 KPR720814:KPR721309 KZN720814:KZN721309 LJJ720814:LJJ721309 LTF720814:LTF721309 MDB720814:MDB721309 MMX720814:MMX721309 MWT720814:MWT721309 NGP720814:NGP721309 NQL720814:NQL721309 OAH720814:OAH721309 OKD720814:OKD721309 OTZ720814:OTZ721309 PDV720814:PDV721309 PNR720814:PNR721309 PXN720814:PXN721309 QHJ720814:QHJ721309 QRF720814:QRF721309 RBB720814:RBB721309 RKX720814:RKX721309 RUT720814:RUT721309 SEP720814:SEP721309 SOL720814:SOL721309 SYH720814:SYH721309 TID720814:TID721309 TRZ720814:TRZ721309 UBV720814:UBV721309 ULR720814:ULR721309 UVN720814:UVN721309 VFJ720814:VFJ721309 VPF720814:VPF721309 VZB720814:VZB721309 WIX720814:WIX721309 WST720814:WST721309 GH786350:GH786845 QD786350:QD786845 ZZ786350:ZZ786845 AJV786350:AJV786845 ATR786350:ATR786845 BDN786350:BDN786845 BNJ786350:BNJ786845 BXF786350:BXF786845 CHB786350:CHB786845 CQX786350:CQX786845 DAT786350:DAT786845 DKP786350:DKP786845 DUL786350:DUL786845 EEH786350:EEH786845 EOD786350:EOD786845 EXZ786350:EXZ786845 FHV786350:FHV786845 FRR786350:FRR786845 GBN786350:GBN786845 GLJ786350:GLJ786845 GVF786350:GVF786845 HFB786350:HFB786845 HOX786350:HOX786845 HYT786350:HYT786845 IIP786350:IIP786845 ISL786350:ISL786845 JCH786350:JCH786845 JMD786350:JMD786845 JVZ786350:JVZ786845 KFV786350:KFV786845 KPR786350:KPR786845 KZN786350:KZN786845 LJJ786350:LJJ786845 LTF786350:LTF786845 MDB786350:MDB786845 MMX786350:MMX786845 MWT786350:MWT786845 NGP786350:NGP786845 NQL786350:NQL786845 OAH786350:OAH786845 OKD786350:OKD786845 OTZ786350:OTZ786845 PDV786350:PDV786845 PNR786350:PNR786845 PXN786350:PXN786845 QHJ786350:QHJ786845 QRF786350:QRF786845 RBB786350:RBB786845 RKX786350:RKX786845 RUT786350:RUT786845 SEP786350:SEP786845 SOL786350:SOL786845 SYH786350:SYH786845 TID786350:TID786845 TRZ786350:TRZ786845 UBV786350:UBV786845 ULR786350:ULR786845 UVN786350:UVN786845 VFJ786350:VFJ786845 VPF786350:VPF786845 VZB786350:VZB786845 WIX786350:WIX786845 WST786350:WST786845 GH851886:GH852381 QD851886:QD852381 ZZ851886:ZZ852381 AJV851886:AJV852381 ATR851886:ATR852381 BDN851886:BDN852381 BNJ851886:BNJ852381 BXF851886:BXF852381 CHB851886:CHB852381 CQX851886:CQX852381 DAT851886:DAT852381 DKP851886:DKP852381 DUL851886:DUL852381 EEH851886:EEH852381 EOD851886:EOD852381 EXZ851886:EXZ852381 FHV851886:FHV852381 FRR851886:FRR852381 GBN851886:GBN852381 GLJ851886:GLJ852381 GVF851886:GVF852381 HFB851886:HFB852381 HOX851886:HOX852381 HYT851886:HYT852381 IIP851886:IIP852381 ISL851886:ISL852381 JCH851886:JCH852381 JMD851886:JMD852381 JVZ851886:JVZ852381 KFV851886:KFV852381 KPR851886:KPR852381 KZN851886:KZN852381 LJJ851886:LJJ852381 LTF851886:LTF852381 MDB851886:MDB852381 MMX851886:MMX852381 MWT851886:MWT852381 NGP851886:NGP852381 NQL851886:NQL852381 OAH851886:OAH852381 OKD851886:OKD852381 OTZ851886:OTZ852381 PDV851886:PDV852381 PNR851886:PNR852381 PXN851886:PXN852381 QHJ851886:QHJ852381 QRF851886:QRF852381 RBB851886:RBB852381 RKX851886:RKX852381 RUT851886:RUT852381 SEP851886:SEP852381 SOL851886:SOL852381 SYH851886:SYH852381 TID851886:TID852381 TRZ851886:TRZ852381 UBV851886:UBV852381 ULR851886:ULR852381 UVN851886:UVN852381 VFJ851886:VFJ852381 VPF851886:VPF852381 VZB851886:VZB852381 WIX851886:WIX852381 WST851886:WST852381 GH917422:GH917917 QD917422:QD917917 ZZ917422:ZZ917917 AJV917422:AJV917917 ATR917422:ATR917917 BDN917422:BDN917917 BNJ917422:BNJ917917 BXF917422:BXF917917 CHB917422:CHB917917 CQX917422:CQX917917 DAT917422:DAT917917 DKP917422:DKP917917 DUL917422:DUL917917 EEH917422:EEH917917 EOD917422:EOD917917 EXZ917422:EXZ917917 FHV917422:FHV917917 FRR917422:FRR917917 GBN917422:GBN917917 GLJ917422:GLJ917917 GVF917422:GVF917917 HFB917422:HFB917917 HOX917422:HOX917917 HYT917422:HYT917917 IIP917422:IIP917917 ISL917422:ISL917917 JCH917422:JCH917917 JMD917422:JMD917917 JVZ917422:JVZ917917 KFV917422:KFV917917 KPR917422:KPR917917 KZN917422:KZN917917 LJJ917422:LJJ917917 LTF917422:LTF917917 MDB917422:MDB917917 MMX917422:MMX917917 MWT917422:MWT917917 NGP917422:NGP917917 NQL917422:NQL917917 OAH917422:OAH917917 OKD917422:OKD917917 OTZ917422:OTZ917917 PDV917422:PDV917917 PNR917422:PNR917917 PXN917422:PXN917917 QHJ917422:QHJ917917 QRF917422:QRF917917 RBB917422:RBB917917 RKX917422:RKX917917 RUT917422:RUT917917 SEP917422:SEP917917 SOL917422:SOL917917 SYH917422:SYH917917 TID917422:TID917917 TRZ917422:TRZ917917 UBV917422:UBV917917 ULR917422:ULR917917 UVN917422:UVN917917 VFJ917422:VFJ917917 VPF917422:VPF917917 VZB917422:VZB917917 WIX917422:WIX917917 WST917422:WST917917 GH982958:GH983453 QD982958:QD983453 ZZ982958:ZZ983453 AJV982958:AJV983453 ATR982958:ATR983453 BDN982958:BDN983453 BNJ982958:BNJ983453 BXF982958:BXF983453 CHB982958:CHB983453 CQX982958:CQX983453 DAT982958:DAT983453 DKP982958:DKP983453 DUL982958:DUL983453 EEH982958:EEH983453 EOD982958:EOD983453 EXZ982958:EXZ983453 FHV982958:FHV983453 FRR982958:FRR983453 GBN982958:GBN983453 GLJ982958:GLJ983453 GVF982958:GVF983453 HFB982958:HFB983453 HOX982958:HOX983453 HYT982958:HYT983453 IIP982958:IIP983453 ISL982958:ISL983453 JCH982958:JCH983453 JMD982958:JMD983453 JVZ982958:JVZ983453 KFV982958:KFV983453 KPR982958:KPR983453 KZN982958:KZN983453 LJJ982958:LJJ983453 LTF982958:LTF983453 MDB982958:MDB983453 MMX982958:MMX983453 MWT982958:MWT983453 NGP982958:NGP983453 NQL982958:NQL983453 OAH982958:OAH983453 OKD982958:OKD983453 OTZ982958:OTZ983453 PDV982958:PDV983453 PNR982958:PNR983453 PXN982958:PXN983453 QHJ982958:QHJ983453 QRF982958:QRF983453 RBB982958:RBB983453 RKX982958:RKX983453 RUT982958:RUT983453 SEP982958:SEP983453 SOL982958:SOL983453 SYH982958:SYH983453 TID982958:TID983453 TRZ982958:TRZ983453 UBV982958:UBV983453 ULR982958:ULR983453 UVN982958:UVN983453 VFJ982958:VFJ983453 VPF982958:VPF983453 VZB982958:VZB983453 WIX982958:WIX983453 WST982958:WST983453 WST2:WST434 WIX2:WIX434 VZB2:VZB434 VPF2:VPF434 VFJ2:VFJ434 UVN2:UVN434 ULR2:ULR434 UBV2:UBV434 TRZ2:TRZ434 TID2:TID434 SYH2:SYH434 SOL2:SOL434 SEP2:SEP434 RUT2:RUT434 RKX2:RKX434 RBB2:RBB434 QRF2:QRF434 QHJ2:QHJ434 PXN2:PXN434 PNR2:PNR434 PDV2:PDV434 OTZ2:OTZ434 OKD2:OKD434 OAH2:OAH434 NQL2:NQL434 NGP2:NGP434 MWT2:MWT434 MMX2:MMX434 MDB2:MDB434 LTF2:LTF434 LJJ2:LJJ434 KZN2:KZN434 KPR2:KPR434 KFV2:KFV434 JVZ2:JVZ434 JMD2:JMD434 JCH2:JCH434 ISL2:ISL434 IIP2:IIP434 HYT2:HYT434 HOX2:HOX434 HFB2:HFB434 GVF2:GVF434 GLJ2:GLJ434 GBN2:GBN434 FRR2:FRR434 FHV2:FHV434 EXZ2:EXZ434 EOD2:EOD434 EEH2:EEH434 DUL2:DUL434 DKP2:DKP434 DAT2:DAT434 CQX2:CQX434 CHB2:CHB434 BXF2:BXF434 BNJ2:BNJ434 BDN2:BDN434 ATR2:ATR434 AJV2:AJV434 ZZ2:ZZ434 QD2:QD434 GH2:GH434">
       <formula1>"Update, Update &amp; Version, Insert, Insert &amp; Version, Remove, Remove &amp; Version"</formula1>
